--- a/Muzaffer/day1/calisanlar_markalar.xlsx
+++ b/Muzaffer/day1/calisanlar_markalar.xlsx
@@ -205,12 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,6 +219,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +517,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,42 +528,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -580,13 +580,13 @@
       <c r="D3" s="1">
         <v>2500</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1">
@@ -606,13 +606,13 @@
       <c r="D4" s="1">
         <v>1500</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1">
         <v>101</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="1">
@@ -632,13 +632,13 @@
       <c r="D5" s="1">
         <v>3000</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="1">
         <v>102</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="1">
@@ -658,13 +658,13 @@
       <c r="D6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>103</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="1">
@@ -684,7 +684,7 @@
       <c r="D7" s="1">
         <v>7000</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="D8" s="1">
         <v>1500</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -718,7 +718,7 @@
       <c r="D9" s="1">
         <v>2500</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
